--- a/data/tariff_table.xlsx
+++ b/data/tariff_table.xlsx
@@ -3,16 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4B1226-3F18-4711-AC9C-77F7C8B24E2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652A1589-7476-4CD3-9C62-30859FF970AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="3165" windowWidth="17280" windowHeight="8970" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="3165" windowWidth="17280" windowHeight="8970" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="기업PPA,을,고압A" sheetId="6" r:id="rId1"/>
-    <sheet name="기업PPA,을,고압B" sheetId="7" r:id="rId2"/>
-    <sheet name="기업PPA,을,고압C" sheetId="8" r:id="rId3"/>
-    <sheet name="을,고압B,선택3" sheetId="1" r:id="rId4"/>
-    <sheet name="을,고압A,선택3" sheetId="5" r:id="rId5"/>
+    <sheet name="기업PPA,고압A" sheetId="6" r:id="rId1"/>
+    <sheet name="기업PPA,고압B" sheetId="7" r:id="rId2"/>
+    <sheet name="기업PPA,고압C" sheetId="8" r:id="rId3"/>
+    <sheet name="을,고압A,선택1" sheetId="10" r:id="rId4"/>
+    <sheet name="을,고압A,선택2" sheetId="11" r:id="rId5"/>
+    <sheet name="을,고압A,선택3" sheetId="12" r:id="rId6"/>
+    <sheet name="을,고압B,선택1" sheetId="13" r:id="rId7"/>
+    <sheet name="을,고압B,선택2" sheetId="14" r:id="rId8"/>
+    <sheet name="을,고압B,선택3" sheetId="15" r:id="rId9"/>
+    <sheet name="을,고압C,선택1" sheetId="16" r:id="rId10"/>
+    <sheet name="을,고압C,선택2" sheetId="17" r:id="rId11"/>
+    <sheet name="을,고압C,선택3" sheetId="18" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="8">
   <si>
     <t>경부하</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,11 +61,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(23.1.1) 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(23.01.01 RE요금제 적용)</t>
+    <t>기본요금</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,6 +69,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,8 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -384,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C41C84C-5222-4416-802A-E88AE01E0076}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -392,7 +402,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -405,11 +415,8 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -423,7 +430,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -437,7 +444,7 @@
         <v>122.6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -449,6 +456,20 @@
       </c>
       <c r="D4">
         <v>174.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>10020</v>
+      </c>
+      <c r="C5">
+        <v>10020</v>
+      </c>
+      <c r="D5">
+        <v>10020</v>
       </c>
     </row>
   </sheetData>
@@ -458,9 +479,267 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760A33D2-28B0-497B-81CC-F406A9544D8C}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>87.4</v>
+      </c>
+      <c r="C2">
+        <v>87.4</v>
+      </c>
+      <c r="D2">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="C3">
+        <v>110.3</v>
+      </c>
+      <c r="D3">
+        <v>139.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>221.2</v>
+      </c>
+      <c r="C4">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>196.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>6590</v>
+      </c>
+      <c r="C5">
+        <v>6590</v>
+      </c>
+      <c r="D5">
+        <v>6590</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C0D7F5-FD41-4D77-936C-5E472C10595C}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>82.7</v>
+      </c>
+      <c r="C2">
+        <v>82.7</v>
+      </c>
+      <c r="D2">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>135.6</v>
+      </c>
+      <c r="C3">
+        <v>105.6</v>
+      </c>
+      <c r="D3">
+        <v>135.19999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>216.5</v>
+      </c>
+      <c r="C4">
+        <v>136</v>
+      </c>
+      <c r="D4" s="3">
+        <v>191.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>7520</v>
+      </c>
+      <c r="C5">
+        <v>7520</v>
+      </c>
+      <c r="D5">
+        <v>7520</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7363927-9DAE-458A-9820-1EC796A0A987}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="C2">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="D2">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>134.5</v>
+      </c>
+      <c r="C3">
+        <v>104.5</v>
+      </c>
+      <c r="D3">
+        <v>134.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>215.4</v>
+      </c>
+      <c r="C4">
+        <v>134.9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>190.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>8090</v>
+      </c>
+      <c r="C5">
+        <v>8090</v>
+      </c>
+      <c r="D5">
+        <v>8090</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA7F4B8-745A-432E-A420-C858C52F9D1E}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -468,7 +747,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -481,11 +760,8 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -499,7 +775,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -513,7 +789,7 @@
         <v>127.1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -525,6 +801,20 @@
       </c>
       <c r="D4">
         <v>179.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>9980</v>
+      </c>
+      <c r="C5">
+        <v>9980</v>
+      </c>
+      <c r="D5">
+        <v>9980</v>
       </c>
     </row>
   </sheetData>
@@ -535,10 +825,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093B0818-07FC-4E01-8F20-F72DBE9A1568}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C7:C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -546,7 +836,7 @@
     <col min="5" max="5" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -559,11 +849,8 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -577,7 +864,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -591,7 +878,7 @@
         <v>126.9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -603,6 +890,20 @@
       </c>
       <c r="D4">
         <v>179.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>9670</v>
+      </c>
+      <c r="C5">
+        <v>9670</v>
+      </c>
+      <c r="D5">
+        <v>9670</v>
       </c>
     </row>
   </sheetData>
@@ -612,16 +913,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD23B25-DDA0-41E3-ACDC-986026B34E2C}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="E13" sqref="E10:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -634,50 +935,323 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>82.4</v>
+        <v>84.8</v>
       </c>
       <c r="C2">
-        <v>82.4</v>
+        <v>84.8</v>
       </c>
       <c r="D2">
-        <v>89.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>134.69999999999999</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="C3">
-        <v>104.8</v>
+        <v>107.3</v>
       </c>
       <c r="D3">
-        <v>134.69999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>137.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>216</v>
+        <v>219.8</v>
       </c>
       <c r="C4">
-        <v>135.1</v>
+        <v>138</v>
       </c>
       <c r="D4">
-        <v>190.9</v>
+        <v>195.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7220</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7220</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7220</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F1F1A4-A60A-4D2E-80F1-1AC4A1D0A640}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>79.3</v>
+      </c>
+      <c r="C2">
+        <v>79.3</v>
+      </c>
+      <c r="D2">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="C3">
+        <v>101.8</v>
+      </c>
+      <c r="D3">
+        <v>132.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>214.3</v>
+      </c>
+      <c r="C4">
+        <v>132.5</v>
+      </c>
+      <c r="D4">
+        <v>189.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8320</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8320</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8320</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D66945-C0C4-4910-A77C-45D89BC148D4}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="C2">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="D2">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>131.6</v>
+      </c>
+      <c r="C3">
+        <v>100.5</v>
+      </c>
+      <c r="D3">
+        <v>131.80000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>201.9</v>
+      </c>
+      <c r="C4">
+        <v>124.2</v>
+      </c>
+      <c r="D4">
+        <v>178.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9810</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9810</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9810</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF705BB-E98E-4BAF-B92D-F66DB8ABAD32}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>87.9</v>
+      </c>
+      <c r="C2">
+        <v>87.9</v>
+      </c>
+      <c r="D2">
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="C3">
+        <v>110.2</v>
+      </c>
+      <c r="D3">
+        <v>140.19999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>221.4</v>
+      </c>
+      <c r="C4">
+        <v>140.5</v>
+      </c>
+      <c r="D4">
+        <v>196.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6630</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6630</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6630</v>
       </c>
     </row>
   </sheetData>
@@ -687,17 +1261,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A16093-CCE9-487C-A6DE-DB7659181EDC}">
-  <dimension ref="A1:E4"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89174D77-D0D3-4BF4-9F98-7023FF29A667}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -710,55 +1284,151 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>78.400000000000006</v>
+        <v>84.1</v>
       </c>
       <c r="C2">
-        <v>78.400000000000006</v>
+        <v>84.1</v>
       </c>
       <c r="D2">
-        <v>85.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>131.6</v>
+        <v>136.4</v>
       </c>
       <c r="C3">
-        <v>100.5</v>
+        <v>106.4</v>
       </c>
       <c r="D3">
-        <v>131.80000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>136.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>201.9</v>
+        <v>217.6</v>
       </c>
       <c r="C4">
-        <v>124.2</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="D4">
-        <v>178.7</v>
+        <v>192.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7380</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7380</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7380</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811AD4FA-B44B-434E-A30F-405F9BF9CFBA}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>82.4</v>
+      </c>
+      <c r="C2">
+        <v>82.4</v>
+      </c>
+      <c r="D2">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="C3">
+        <v>104.8</v>
+      </c>
+      <c r="D3">
+        <v>134.69999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>216</v>
+      </c>
+      <c r="C4">
+        <v>135.1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>190.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>8190</v>
+      </c>
+      <c r="C5">
+        <v>8190</v>
+      </c>
+      <c r="D5">
+        <v>8190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>